--- a/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
+++ b/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doko6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE79F07-F8B0-4D21-A225-2FF67CD0AC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3ACBD3-7929-4280-AADB-95ACCFC286A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -364,6 +364,673 @@
   </si>
   <si>
     <t>TargetServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面Servlet</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規会員登録Servlet</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面Servlet</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板画面Servlet</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsNewServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規掲示板作成Servlet</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルのDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThreadsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板スレッド自体のDAO</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommentsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板スレッドコメントのDAO</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsNewCommentServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいコメントをDAOに登録してjspで表示するServlet</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My_certificationsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My資格のDAO</t>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_daysDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格日程のDAO</t>
+    <rPh sb="0" eb="4">
+      <t>シカクニッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CertificationsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TargetsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target_understandsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChartsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Threads.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comments.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My_certifications.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_days.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Certifications.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Targets.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target_understands.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理解度報告Servlet</t>
+    <rPh sb="0" eb="5">
+      <t>リカイドホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ設定Servlet</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My資格Servlet</t>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチングServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格一覧Servlet</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験日程選択Servlet</t>
+    <rPh sb="0" eb="4">
+      <t>シケンニッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定画面Servlet</t>
+    <rPh sb="0" eb="6">
+      <t>モクヒョウセッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格のDAO</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格の項目DAO</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標理解度DAO</t>
+    <rPh sb="0" eb="5">
+      <t>モクヒョウリカイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチングの質問DAO</t>
+    <rPh sb="6" eb="8">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報のJavabeans</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板スレッドのJavabeans</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板コメントのJavabeans</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My資格のJavabeans</t>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格試験日程のJavabeans</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格情報のJavabeans</t>
+    <rPh sb="0" eb="4">
+      <t>シカクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目のJavabeans</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標のJavabeans</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標理解度のJavabeans</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リカイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容のJavabeans</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板スレッドServlet</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標DAO</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_user.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_newthread.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_thread.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand_result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_setting.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matching.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification_list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通css</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ新規登録画面css</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板画面css</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板_新規スレッド作成画面css</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板_各スレッド画面css</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理解度報告画面css</t>
+    <rPh sb="0" eb="5">
+      <t>リカイドホウコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理解度報告_結果画面css</t>
+    <rPh sb="0" eb="5">
+      <t>リカイドホウコク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ設定画面css</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My資格画面css</t>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング画面css</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格一覧画面css</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験日程選択画面css</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定画面css</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウセッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_user.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_newthread.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_thread.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understand_result.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_setting.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matching.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification_list.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,7 +1062,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +1072,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,29 +1160,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G57"/>
+  <dimension ref="B2:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -806,829 +1557,1612 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B57" si="0">ROW()-2</f>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="F27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="F28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="F29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="F30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="F31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
+      <c r="F32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="13">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="13">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="13">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="13">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="13">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="13">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="13">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="18">
+        <f t="shared" ref="B68:B84" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="18">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="18">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="18">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="18">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="18">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="18">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="18">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="18">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="18">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="18">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="18">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="18">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="6">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="6">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="6">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="6">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="6">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="6">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="6">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="6">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="6"/>
+      <c r="G81" s="18"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="17">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="17">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="17">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1637,6 +3171,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1807,22 +3356,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1839,29 +3398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
+++ b/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doko6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3ACBD3-7929-4280-AADB-95ACCFC286A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D43A6-76F9-4980-A519-5788D1B305E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="164">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -557,10 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WebContent/WEB-INF/css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>style.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -970,10 +966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WebContent/WEB-INF/js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>regist_user.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1031,6 +1023,42 @@
   </si>
   <si>
     <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐久間</t>
+    <rPh sb="0" eb="3">
+      <t>サクマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川上</t>
+    <rPh sb="0" eb="2">
+      <t>カワカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹田</t>
+    <rPh sb="0" eb="2">
+      <t>タケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1543,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1593,7 +1621,9 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
@@ -1612,7 +1642,9 @@
       <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
@@ -1631,7 +1663,9 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
@@ -1650,7 +1684,9 @@
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
@@ -1783,7 +1819,9 @@
       <c r="F13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
@@ -1802,7 +1840,9 @@
       <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
@@ -1840,7 +1880,9 @@
       <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
@@ -1971,7 +2013,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -2026,7 +2068,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -2045,7 +2087,7 @@
         <v>48</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -2064,7 +2106,7 @@
         <v>49</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -2083,7 +2125,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -2102,7 +2144,7 @@
         <v>51</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -2121,7 +2163,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -2140,7 +2182,7 @@
         <v>53</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -2153,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>60</v>
@@ -2172,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>62</v>
@@ -2191,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>64</v>
@@ -2210,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>68</v>
@@ -2229,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>70</v>
@@ -2248,13 +2290,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="9"/>
     </row>
@@ -2267,13 +2309,13 @@
         <v>6</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="9"/>
     </row>
@@ -2286,13 +2328,13 @@
         <v>6</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G40" s="9"/>
     </row>
@@ -2305,13 +2347,13 @@
         <v>6</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -2324,13 +2366,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -2343,13 +2385,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -2362,13 +2404,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>79</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -2381,13 +2423,13 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -2400,13 +2442,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -2419,13 +2461,13 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -2438,13 +2480,13 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -2457,13 +2499,13 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -2476,13 +2518,13 @@
         <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -2495,13 +2537,13 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -2514,13 +2556,13 @@
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -2533,13 +2575,13 @@
         <v>87</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="F53" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="13"/>
     </row>
@@ -2552,13 +2594,13 @@
         <v>87</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -2571,13 +2613,13 @@
         <v>87</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="13"/>
     </row>
@@ -2590,13 +2632,13 @@
         <v>87</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="13"/>
     </row>
@@ -2609,13 +2651,13 @@
         <v>87</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -2628,13 +2670,13 @@
         <v>87</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G58" s="13"/>
     </row>
@@ -2647,13 +2689,13 @@
         <v>87</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -2666,13 +2708,13 @@
         <v>87</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G60" s="13"/>
     </row>
@@ -2685,13 +2727,13 @@
         <v>87</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -2704,13 +2746,13 @@
         <v>87</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62" s="13"/>
     </row>
@@ -2723,13 +2765,13 @@
         <v>87</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -2742,13 +2784,13 @@
         <v>87</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G64" s="13"/>
     </row>
@@ -2761,13 +2803,13 @@
         <v>87</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G65" s="13"/>
     </row>
@@ -2780,13 +2822,13 @@
         <v>87</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G66" s="13"/>
     </row>
@@ -2799,13 +2841,13 @@
         <v>87</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G67" s="13"/>
     </row>
@@ -2815,13 +2857,13 @@
         <v>66</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>29</v>
@@ -2834,13 +2876,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>30</v>
@@ -2853,13 +2895,13 @@
         <v>68</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D70" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>31</v>
@@ -2872,13 +2914,13 @@
         <v>69</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>32</v>
@@ -2891,13 +2933,13 @@
         <v>70</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>33</v>
@@ -2910,13 +2952,13 @@
         <v>71</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>34</v>
@@ -2929,13 +2971,13 @@
         <v>72</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>35</v>
@@ -2948,13 +2990,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>36</v>
@@ -2967,13 +3009,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>37</v>
@@ -2986,13 +3028,13 @@
         <v>75</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>38</v>
@@ -3005,13 +3047,13 @@
         <v>76</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>39</v>
@@ -3024,13 +3066,13 @@
         <v>77</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>40</v>
@@ -3043,13 +3085,13 @@
         <v>78</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>41</v>
@@ -3062,13 +3104,13 @@
         <v>79</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>42</v>
@@ -3171,21 +3213,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3356,32 +3383,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3398,4 +3415,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
+++ b/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doko6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D43A6-76F9-4980-A519-5788D1B305E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E130F0-2972-44C1-AA63-7D2829D246FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="B2:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3213,6 +3213,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3383,22 +3398,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3415,29 +3440,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
+++ b/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doko6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D43A6-76F9-4980-A519-5788D1B305E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF27B7-D729-4621-B57C-CF116B0DC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1058,6 +1058,65 @@
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小坂</t>
+    <rPh sb="0" eb="2">
+      <t>コサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面js</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ新規登録画面js</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面js</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板画面js</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1571,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1705,7 +1764,9 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
@@ -1724,7 +1785,9 @@
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
@@ -1743,7 +1806,9 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
@@ -1762,7 +1827,9 @@
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
@@ -1781,7 +1848,9 @@
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
@@ -1800,7 +1869,9 @@
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
@@ -1861,7 +1932,9 @@
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
@@ -1901,7 +1974,9 @@
       <c r="F17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
@@ -1920,7 +1995,9 @@
       <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="7">
@@ -1939,7 +2016,9 @@
       <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="7">
@@ -1958,7 +2037,9 @@
       <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="7">
@@ -1977,7 +2058,9 @@
       <c r="F21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="7">
@@ -1996,7 +2079,9 @@
       <c r="F22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="7">
@@ -2015,7 +2100,9 @@
       <c r="F23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="7">
@@ -2033,7 +2120,9 @@
       <c r="F24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="7">
@@ -2051,7 +2140,9 @@
       <c r="F25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="7">
@@ -2070,7 +2161,9 @@
       <c r="F26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="7">
@@ -2089,7 +2182,9 @@
       <c r="F27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="7">
@@ -2108,7 +2203,9 @@
       <c r="F28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="7">
@@ -2127,7 +2224,9 @@
       <c r="F29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="7">
@@ -2146,7 +2245,9 @@
       <c r="F30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7">
@@ -2165,7 +2266,9 @@
       <c r="F31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7">
@@ -2184,7 +2287,9 @@
       <c r="F32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="9">
@@ -2602,7 +2707,9 @@
       <c r="F54" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G54" s="13"/>
+      <c r="G54" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="13">
@@ -2621,7 +2728,9 @@
       <c r="F55" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="13"/>
+      <c r="G55" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="13">
@@ -2640,7 +2749,9 @@
       <c r="F56" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="G56" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="13">
@@ -2659,7 +2770,9 @@
       <c r="F57" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="13">
@@ -2678,7 +2791,9 @@
       <c r="F58" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="13">
@@ -2697,7 +2812,9 @@
       <c r="F59" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G59" s="13"/>
+      <c r="G59" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="13">
@@ -2716,7 +2833,9 @@
       <c r="F60" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="13">
@@ -2735,7 +2854,9 @@
       <c r="F61" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="13">
@@ -2754,7 +2875,9 @@
       <c r="F62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G62" s="13"/>
+      <c r="G62" s="13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="13">
@@ -2773,7 +2896,9 @@
       <c r="F63" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="13">
@@ -2792,7 +2917,9 @@
       <c r="F64" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="13">
@@ -2811,7 +2938,9 @@
       <c r="F65" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G65" s="13"/>
+      <c r="G65" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="13">
@@ -2830,7 +2959,9 @@
       <c r="F66" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G66" s="13"/>
+      <c r="G66" s="13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="13">
@@ -2849,7 +2980,9 @@
       <c r="F67" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="13"/>
+      <c r="G67" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="18">
@@ -2866,9 +2999,11 @@
         <v>142</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="18">
@@ -2885,9 +3020,11 @@
         <v>143</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="18">
@@ -2904,9 +3041,11 @@
         <v>144</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" s="18"/>
+        <v>170</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="18">
@@ -2923,9 +3062,11 @@
         <v>145</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="18">
@@ -2944,7 +3085,9 @@
       <c r="F72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="18">
@@ -2963,7 +3106,9 @@
       <c r="F73" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="18"/>
+      <c r="G73" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="18">
@@ -2982,7 +3127,9 @@
       <c r="F74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="18"/>
+      <c r="G74" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="18">
@@ -3001,7 +3148,9 @@
       <c r="F75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G75" s="18"/>
+      <c r="G75" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="18">
@@ -3020,7 +3169,9 @@
       <c r="F76" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" s="18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="18">
@@ -3039,7 +3190,9 @@
       <c r="F77" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="18">
@@ -3058,7 +3211,9 @@
       <c r="F78" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G78" s="18"/>
+      <c r="G78" s="18" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="18">
@@ -3077,7 +3232,9 @@
       <c r="F79" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G79" s="18"/>
+      <c r="G79" s="18" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="18">
@@ -3096,7 +3253,9 @@
       <c r="F80" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="18"/>
+      <c r="G80" s="18" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="18">
@@ -3115,7 +3274,9 @@
       <c r="F81" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="18"/>
+      <c r="G81" s="18" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="17">
@@ -3213,6 +3374,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3383,22 +3559,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3415,29 +3601,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
+++ b/doc/05_ファイル構成一覧表(仮)_B2アンパンマン号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E130F0-2972-44C1-AA63-7D2829D246FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336724A3-BD56-4256-AB3B-2F6972BB9729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="166">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1058,6 +1058,20 @@
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小坂</t>
+    <rPh sb="0" eb="2">
+      <t>コサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1571,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1705,7 +1719,9 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
@@ -1901,7 +1917,9 @@
       <c r="F17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
@@ -1939,7 +1957,9 @@
       <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="7">
@@ -1958,7 +1978,9 @@
       <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="7">
@@ -1977,7 +1999,9 @@
       <c r="F21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="7">
@@ -2089,7 +2113,9 @@
       <c r="F27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="7">
@@ -2108,7 +2134,9 @@
       <c r="F28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="7">
@@ -2146,7 +2174,9 @@
       <c r="F30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="7">
@@ -2165,7 +2195,9 @@
       <c r="F31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="7">
@@ -2203,7 +2235,9 @@
       <c r="F33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="9">
@@ -2393,7 +2427,9 @@
       <c r="F43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="11">
@@ -2602,7 +2638,9 @@
       <c r="F54" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G54" s="13"/>
+      <c r="G54" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="13">
@@ -2621,7 +2659,9 @@
       <c r="F55" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="13"/>
+      <c r="G55" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="13">
@@ -2640,7 +2680,9 @@
       <c r="F56" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="G56" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="13">
@@ -2754,7 +2796,9 @@
       <c r="F62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G62" s="13"/>
+      <c r="G62" s="13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="13">
@@ -2773,7 +2817,9 @@
       <c r="F63" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="13">
@@ -2811,7 +2857,9 @@
       <c r="F65" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G65" s="13"/>
+      <c r="G65" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="13">
@@ -2830,7 +2878,9 @@
       <c r="F66" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G66" s="13"/>
+      <c r="G66" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="13">
@@ -2868,7 +2918,9 @@
       <c r="F68" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="18"/>
+      <c r="G68" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="18">
@@ -2887,7 +2939,9 @@
       <c r="F69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="G69" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="18">
@@ -2906,7 +2960,9 @@
       <c r="F70" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G70" s="18"/>
+      <c r="G70" s="18" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="18">
@@ -3020,7 +3076,9 @@
       <c r="F76" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" s="18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="18">
@@ -3039,7 +3097,9 @@
       <c r="F77" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="18">
@@ -3077,7 +3137,9 @@
       <c r="F79" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G79" s="18"/>
+      <c r="G79" s="18" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="18">
@@ -3096,7 +3158,9 @@
       <c r="F80" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="18"/>
+      <c r="G80" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="18">
@@ -3213,21 +3277,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3398,32 +3447,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3440,4 +3479,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>